--- a/teaching/traditional_assets/database/data/denmark/denmark_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.07150000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E2">
-        <v>0.06480000000000001</v>
+        <v>0.9109999999999999</v>
       </c>
       <c r="G2">
-        <v>0.07744209466263846</v>
+        <v>0.07952594676208401</v>
       </c>
       <c r="H2">
-        <v>0.07744209466263846</v>
+        <v>0.07952594676208401</v>
       </c>
       <c r="I2">
-        <v>0.0768378650553877</v>
+        <v>0.08407619599164409</v>
       </c>
       <c r="J2">
-        <v>0.06815358551527356</v>
+        <v>0.07691792892082601</v>
       </c>
       <c r="K2">
-        <v>24.33</v>
+        <v>14.25</v>
       </c>
       <c r="L2">
-        <v>0.2450151057401813</v>
+        <v>0.147366026184616</v>
       </c>
       <c r="M2">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="N2">
-        <v>0.01937716262975778</v>
+        <v>0.01285223265874544</v>
       </c>
       <c r="O2">
-        <v>0.1381011097410604</v>
+        <v>0.2435087719298246</v>
       </c>
       <c r="P2">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="Q2">
-        <v>0.01937716262975778</v>
+        <v>0.01285223265874544</v>
       </c>
       <c r="R2">
-        <v>0.1381011097410604</v>
+        <v>0.2435087719298246</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>44.20999999999999</v>
+        <v>38.5</v>
       </c>
       <c r="V2">
-        <v>0.254959630911188</v>
+        <v>0.1425968176834869</v>
       </c>
       <c r="W2">
-        <v>0.0649546720175451</v>
+        <v>0.04220907297830374</v>
       </c>
       <c r="X2">
-        <v>0.03334448561211138</v>
+        <v>0.02308854995068141</v>
       </c>
       <c r="Y2">
-        <v>0.03161018640543371</v>
+        <v>0.01912052302762233</v>
       </c>
       <c r="Z2">
-        <v>0.215419993057966</v>
+        <v>0.220560193421833</v>
       </c>
       <c r="AA2">
-        <v>0.02247755056079983</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02862452330811661</v>
+        <v>0.01903484712180573</v>
       </c>
       <c r="AC2">
-        <v>-0.006146972747316777</v>
+        <v>-0.01705068102297429</v>
       </c>
       <c r="AD2">
-        <v>174.7</v>
+        <v>1290.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>174.7</v>
+        <v>1290.5</v>
       </c>
       <c r="AG2">
-        <v>130.49</v>
+        <v>1252</v>
       </c>
       <c r="AH2">
-        <v>0.50186727951738</v>
+        <v>0.8269827721000813</v>
       </c>
       <c r="AI2">
-        <v>0.3649467307290579</v>
+        <v>0.7929972901061222</v>
       </c>
       <c r="AJ2">
-        <v>0.4293987956168351</v>
+        <v>0.8226061635015165</v>
       </c>
       <c r="AK2">
-        <v>0.3003291214987687</v>
+        <v>0.7879813955830245</v>
       </c>
       <c r="AL2">
-        <v>4.72</v>
+        <v>2.37</v>
       </c>
       <c r="AM2">
-        <v>4.72</v>
+        <v>2.37</v>
       </c>
       <c r="AN2">
-        <v>22.71781534460338</v>
+        <v>157.5702075702076</v>
       </c>
       <c r="AO2">
-        <v>1.616525423728814</v>
+        <v>3.430379746835443</v>
       </c>
       <c r="AP2">
-        <v>16.96879063719116</v>
+        <v>152.8693528693529</v>
       </c>
       <c r="AQ2">
-        <v>1.616525423728814</v>
+        <v>3.430379746835443</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.07150000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E3">
-        <v>0.06480000000000001</v>
+        <v>0.9109999999999999</v>
       </c>
       <c r="G3">
-        <v>0.6201612903225806</v>
+        <v>0.6252032520325204</v>
       </c>
       <c r="H3">
-        <v>0.6201612903225806</v>
+        <v>0.6252032520325204</v>
       </c>
       <c r="I3">
-        <v>0.6153225806451612</v>
+        <v>0.6609756097560976</v>
       </c>
       <c r="J3">
-        <v>0.4762340389784945</v>
+        <v>0.5155833436506954</v>
       </c>
       <c r="K3">
-        <v>2.23</v>
+        <v>4.61</v>
       </c>
       <c r="L3">
-        <v>0.1798387096774194</v>
+        <v>0.3747967479674797</v>
       </c>
       <c r="M3">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="N3">
-        <v>0.05153374233128834</v>
+        <v>0.04397972116603295</v>
       </c>
       <c r="O3">
-        <v>1.506726457399103</v>
+        <v>0.7527114967462039</v>
       </c>
       <c r="P3">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="Q3">
-        <v>0.05153374233128834</v>
+        <v>0.04397972116603295</v>
       </c>
       <c r="R3">
-        <v>1.506726457399103</v>
+        <v>0.7527114967462039</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="V3">
-        <v>0.02162576687116564</v>
+        <v>0.01774397972116603</v>
       </c>
       <c r="W3">
-        <v>0.04047186932849365</v>
+        <v>0.08814531548757171</v>
       </c>
       <c r="X3">
-        <v>0.03437416247415249</v>
+        <v>0.02308854995068141</v>
       </c>
       <c r="Y3">
-        <v>0.006097706854341155</v>
+        <v>0.0650567655368903</v>
       </c>
       <c r="Z3">
-        <v>0.09439707673568817</v>
+        <v>0.09348635707228095</v>
       </c>
       <c r="AA3">
-        <v>0.04495510112159967</v>
+        <v>0.04820000856504944</v>
       </c>
       <c r="AB3">
-        <v>0.02757344432145641</v>
+        <v>0.01903484712180573</v>
       </c>
       <c r="AC3">
-        <v>0.01738165680014326</v>
+        <v>0.02916516144324371</v>
       </c>
       <c r="AD3">
-        <v>79.5</v>
+        <v>78.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>79.5</v>
+        <v>78.8</v>
       </c>
       <c r="AG3">
-        <v>78.09</v>
+        <v>77.39999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.549412577747063</v>
+        <v>0.4996829422954978</v>
       </c>
       <c r="AI3">
-        <v>0.6115384615384616</v>
+        <v>0.59832953682612</v>
       </c>
       <c r="AJ3">
-        <v>0.5449787144950798</v>
+        <v>0.4952015355086372</v>
       </c>
       <c r="AK3">
-        <v>0.6072789485963139</v>
+        <v>0.5940138142747506</v>
       </c>
       <c r="AL3">
-        <v>4.72</v>
+        <v>2.37</v>
       </c>
       <c r="AM3">
-        <v>4.72</v>
+        <v>2.37</v>
       </c>
       <c r="AN3">
-        <v>10.33810143042913</v>
+        <v>9.621489621489621</v>
       </c>
       <c r="AO3">
-        <v>1.616525423728814</v>
+        <v>3.430379746835443</v>
       </c>
       <c r="AP3">
-        <v>10.15474642392718</v>
+        <v>9.450549450549451</v>
       </c>
       <c r="AQ3">
-        <v>1.616525423728814</v>
+        <v>3.430379746835443</v>
       </c>
     </row>
     <row r="4">
@@ -850,108 +850,221 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Npinvestor.com A/S (CPSE:NPINV)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>-0</v>
+      </c>
+      <c r="H4">
+        <v>-0</v>
+      </c>
+      <c r="I4">
+        <v>-0</v>
+      </c>
+      <c r="J4">
+        <v>-0</v>
+      </c>
+      <c r="K4">
+        <v>-1.06</v>
+      </c>
+      <c r="L4">
+        <v>530</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>-1.115789473684211</v>
+      </c>
+      <c r="X4">
+        <v>0.01705068102297429</v>
+      </c>
+      <c r="Y4">
+        <v>-1.132840154707185</v>
+      </c>
+      <c r="Z4">
+        <v>-0.002105263157894737</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.01705068102297429</v>
+      </c>
+      <c r="AC4">
+        <v>-0.01705068102297429</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Den Jyske Sparekasse A/S (CPSE:DJS)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>22.1</v>
-      </c>
-      <c r="L4">
-        <v>0.2543153049482164</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>-0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>-0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>42.8</v>
-      </c>
-      <c r="V4">
-        <v>0.3955637707948244</v>
-      </c>
-      <c r="W4">
-        <v>0.08943747470659653</v>
-      </c>
-      <c r="X4">
-        <v>0.03231480875007027</v>
-      </c>
-      <c r="Y4">
-        <v>0.05712266595652626</v>
-      </c>
-      <c r="Z4">
-        <v>0.2636529126213592</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.02967560229477681</v>
-      </c>
-      <c r="AC4">
-        <v>-0.02967560229477681</v>
-      </c>
-      <c r="AD4">
-        <v>95.2</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>95.2</v>
-      </c>
-      <c r="AG4">
-        <v>52.40000000000001</v>
-      </c>
-      <c r="AH4">
-        <v>0.4680432645034415</v>
-      </c>
-      <c r="AI4">
-        <v>0.2730140521938629</v>
-      </c>
-      <c r="AJ4">
-        <v>0.3262764632627646</v>
-      </c>
-      <c r="AK4">
-        <v>0.1712978097417457</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>10.7</v>
+      </c>
+      <c r="L5">
+        <v>0.1267772511848341</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>-0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>-0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>37.1</v>
+      </c>
+      <c r="V5">
+        <v>0.1951604418726986</v>
+      </c>
+      <c r="W5">
+        <v>0.04220907297830374</v>
+      </c>
+      <c r="X5">
+        <v>0.05558497956331938</v>
+      </c>
+      <c r="Y5">
+        <v>-0.01337590658501564</v>
+      </c>
+      <c r="Z5">
+        <v>0.2759071592023538</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.02048303881793909</v>
+      </c>
+      <c r="AC5">
+        <v>-0.02048303881793909</v>
+      </c>
+      <c r="AD5">
+        <v>1211.7</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1211.7</v>
+      </c>
+      <c r="AG5">
+        <v>1174.6</v>
+      </c>
+      <c r="AH5">
+        <v>0.8643886431730633</v>
+      </c>
+      <c r="AI5">
+        <v>0.810447461708247</v>
+      </c>
+      <c r="AJ5">
+        <v>0.8607019857844216</v>
+      </c>
+      <c r="AK5">
+        <v>0.8056241426611798</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
         <v>0</v>
       </c>
     </row>
